--- a/statistic_sprungsweite_50.xlsx
+++ b/statistic_sprungsweite_50.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Semester\Unterlagen\Sicherer Programmierung\chess_server_strong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Semester\Unterlagen\Sicherer Programmierung\chess_server_strong - Kopie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4FAA1-3C6E-460F-B81C-3B3A65C92106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D391FE-511B-4A37-A363-80227FAB3909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8295" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
     <t>100 Spieler</t>
   </si>
   <si>
-    <t>Zeit bis KI ersten Zug macht</t>
+    <t>CPU Auslastung</t>
   </si>
   <si>
-    <t>CPU Auslastung</t>
+    <t>Zeit in Sekunden bis KI ersten Zug macht</t>
   </si>
 </sst>
 </file>
@@ -590,6 +590,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Folgen einer DOS-Attacke</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -710,7 +735,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zeit bis KI ersten Zug macht</c:v>
+                  <c:v>Zeit in Sekunden bis KI ersten Zug macht</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -848,6 +873,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Sekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -890,6 +970,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>CPU Auslastung ini %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1909,11 +2044,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1925,7 +2063,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>170.63754310607899</v>
@@ -1936,7 +2074,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>99.96</v>
